--- a/templates/RIS_Template.xlsx
+++ b/templates/RIS_Template.xlsx
@@ -692,20 +692,183 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -715,64 +878,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -786,118 +896,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,8 +1184,8 @@
   </sheetPr>
   <dimension ref="B1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1207,30 +1207,30 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="2:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
@@ -1243,785 +1243,762 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="44"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="71" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="71" t="s">
+      <c r="G7" s="42"/>
+      <c r="H7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="73"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="51"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="52"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="51"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="52"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="51"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="52"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="51"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="52"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="51"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="52"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="54"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="55"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="56"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="57"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20" t="s">
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23" t="s">
+      <c r="F16" s="53"/>
+      <c r="G16" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="58" t="s">
+      <c r="H16" s="55"/>
+      <c r="I16" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="52"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="52"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="52"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="67"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="5"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="5"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="6"/>
+      <c r="I24" s="23"/>
     </row>
     <row r="25" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="44"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12" t="s">
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="46"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="72"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36" t="s">
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="36" t="s">
+      <c r="G28" s="77"/>
+      <c r="H28" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="48"/>
+      <c r="I28" s="78"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H29" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="50" t="s">
+      <c r="I29" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="51"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="52"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="51"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="52"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="18"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="51"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="52"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="18"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="51"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="52"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="18"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="51"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="52"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="54"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
     </row>
     <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="55"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="56"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="49"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="57"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20" t="s">
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23" t="s">
+      <c r="F37" s="53"/>
+      <c r="G37" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="58" t="s">
+      <c r="H37" s="55"/>
+      <c r="I37" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="52"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="18"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="52"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="18"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="52"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="18"/>
     </row>
     <row r="41" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="67"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="21"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="5"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="5"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="6" t="s">
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I45" s="6"/>
+      <c r="I45" s="23"/>
     </row>
     <row r="46" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="43" t="s">
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="44"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="32"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12" t="s">
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="46"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="72"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36" t="s">
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="37"/>
-      <c r="H49" s="36" t="s">
+      <c r="G49" s="77"/>
+      <c r="H49" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="48"/>
+      <c r="I49" s="78"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="33" t="s">
+      <c r="G50" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="33" t="s">
+      <c r="H50" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="50" t="s">
+      <c r="I50" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="51"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="52"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="18"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="51"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="52"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="18"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="51"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="52"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="18"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="51"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="52"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="18"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="51"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="52"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="54"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="46"/>
     </row>
     <row r="57" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="55"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="56"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="49"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="57"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20" t="s">
+      <c r="B58" s="50"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="23" t="s">
+      <c r="F58" s="53"/>
+      <c r="G58" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H58" s="24"/>
-      <c r="I58" s="58" t="s">
+      <c r="H58" s="55"/>
+      <c r="I58" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="52"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="18"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="52"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="18"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="52"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="18"/>
     </row>
     <row r="62" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="60" t="s">
+      <c r="B62" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="61"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="67"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B14:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B35:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="B56:I57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="G38:H38"/>
@@ -2038,25 +2015,48 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="B47:F47"/>
     <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="B56:I57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B14:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B35:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="98" orientation="portrait" r:id="rId1"/>
